--- a/MSTR 웹교육/목차.xlsx
+++ b/MSTR 웹교육/목차.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="17235" windowHeight="11880"/>
+    <workbookView xWindow="10170" yWindow="165" windowWidth="17235" windowHeight="11880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
   <si>
     <t>웹 어플리케이션 기본 구조</t>
   </si>
@@ -192,10 +192,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MSTR 웹 커스터마이징 구현 – 기본 실습 - 1시간 30분</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MSTR 웹 커스터마이징의 구현 – 실제 적용 기능 구현 - 1시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -237,6 +233,51 @@
   </si>
   <si>
     <t>주요 MSTR 웹 페이지 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSTR 웹 커스터마이징의 구현 – 기본 실습 - 1시간 30분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1) 1일차 (1시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교육내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4교시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00 ~ 17:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">웹에 대한 기본적인 구조 및 개념 이해
+MSTR 웹 커스터마이징의 이해 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2) 2일차 (4시간)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1교시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17:00 ~ 18:00</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +285,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,21 +317,51 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -299,7 +370,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -317,6 +388,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -621,15 +701,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="35.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="36.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -654,7 +734,7 @@
         <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -686,7 +766,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -750,7 +830,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -793,7 +873,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -857,7 +937,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -865,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -911,12 +991,12 @@
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
@@ -936,20 +1016,20 @@
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -961,12 +1041,73 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="52.625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="27" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="7"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
